--- a/legendre_out/DATA/p1/p1IntegrandDataPoints9.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints9.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>3.837205269568334e-06</v>
+        <v>2.917158692373794e-07</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>5.016756361735329e-06</v>
+        <v>8.095543471318321e-07</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>7.429443456773879e-06</v>
+        <v>1.218274697371592e-06</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>1.067392569872639e-05</v>
+        <v>1.276555640586891e-06</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>1.455174762562872e-05</v>
+        <v>1.328049637259792e-06</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>3.043306232672005e-05</v>
+        <v>1.405120274777706e-06</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>5.116151980740297e-05</v>
+        <v>1.278605334213462e-06</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001398719127698307</v>
+        <v>1.409422258198877e-06</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002254707201058215</v>
+        <v>1.047817349454759e-06</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002464034467553326</v>
+        <v>1.324937564438981e-06</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001973789127445933</v>
+        <v>1.034613565958322e-06</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001017074471742133</v>
+        <v>9.273891387729184e-07</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>7.776401675004742e-05</v>
+        <v>1.450056875044862e-06</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>9.842323935175271e-05</v>
+        <v>1.132139074090833e-06</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>4.339772669549501e-05</v>
+        <v>1.158150467700573e-06</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>3.132568904311462e-05</v>
+        <v>1.005100004946271e-06</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>1.80448847510806e-05</v>
+        <v>1.030136733575301e-06</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>9.395468437677309e-06</v>
+        <v>1.325629156620791e-06</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>7.198131809351708e-06</v>
+        <v>1.089663207912881e-06</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>7.250703988152421e-06</v>
+        <v>1.268274205068961e-06</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>8.641518704107621e-06</v>
+        <v>2.412545079313225e-06</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>1.097945017847654e-05</v>
+        <v>2.702695263896253e-06</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>1.057972605214027e-05</v>
+        <v>3.588898189706737e-06</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>2.249480704677073e-05</v>
+        <v>3.930630445076592e-06</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>3.412146941150314e-05</v>
+        <v>3.450524292758229e-06</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>8.222498472783914e-05</v>
+        <v>4.200322652152451e-06</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0002059853509441678</v>
+        <v>3.835567068381012e-06</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0002015587410819942</v>
+        <v>3.994744353073329e-06</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0001089514892350398</v>
+        <v>3.919832236634071e-06</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>5.647883160598923e-05</v>
+        <v>3.912286397055617e-06</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>2.814747479156345e-05</v>
+        <v>3.701343073996584e-06</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>2.889894002480733e-05</v>
+        <v>3.428197201319886e-06</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>2.017334291756137e-05</v>
+        <v>4.090413062990746e-06</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>1.778458157754602e-05</v>
+        <v>3.580550982394743e-06</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.138499757274173e-05</v>
+        <v>3.471147551181333e-06</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>1.289420362126745e-05</v>
+        <v>2.260202118427689e-06</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>2.743471855050056e-05</v>
+        <v>2.307051208605068e-06</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>1.82048171679061e-05</v>
+        <v>1.899751263432542e-06</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>8.075007083176488e-06</v>
+        <v>2.322146775795373e-06</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>6.913256436616582e-06</v>
+        <v>3.496461199298684e-06</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>6.220306076771117e-06</v>
+        <v>3.571149306675201e-06</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>7.839611118574261e-06</v>
+        <v>3.33107166207692e-06</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>1.392357839263745e-05</v>
+        <v>2.995264584784375e-06</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>3.213163260056483e-05</v>
+        <v>3.146874289096829e-06</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>3.600688979680807e-05</v>
+        <v>3.038600798920608e-06</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>4.16317700619642e-05</v>
+        <v>2.000257929086005e-06</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>4.299201162814683e-05</v>
+        <v>2.605459726578957e-06</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>3.816794229001826e-05</v>
+        <v>3.844374075314136e-06</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>3.317902048194039e-05</v>
+        <v>5.512846671672595e-06</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>2.47357246015434e-05</v>
+        <v>7.501893495856809e-06</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>2.239847681836442e-05</v>
+        <v>1.566072284952924e-05</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>2.103005591355924e-05</v>
+        <v>2.627948140299157e-05</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>2.116579377752708e-05</v>
+        <v>7.177934019540251e-05</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>2.049170370553901e-05</v>
+        <v>0.0001155974590400509</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>2.048780484653129e-05</v>
+        <v>0.0001261005336445171</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>2.352720340614373e-05</v>
+        <v>0.0001008622505217899</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>3.108067173464023e-05</v>
+        <v>5.189529694007251e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>4.989568148524134e-05</v>
+        <v>3.966331117886268e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>7.567867567136091e-05</v>
+        <v>5.018308843800692e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>9.904924168415501e-05</v>
+        <v>2.211844232961609e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0001307721616635598</v>
+        <v>1.595755568548415e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0001619804338640858</v>
+        <v>9.183771061433539e-06</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0001745262598441358</v>
+        <v>4.772713355961914e-06</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>0.000215760398714545</v>
+        <v>3.655181532066447e-06</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0002628127075823914</v>
+        <v>3.679909160953748e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0002648347342074572</v>
+        <v>4.38174799378459e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0002955172302036064</v>
+        <v>5.561909261808188e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0003006699691410506</v>
+        <v>5.35529987520814e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0002978015721991829</v>
+        <v>1.137468008316174e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>0.000292016932021493</v>
+        <v>1.723732333023558e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0002921620169774357</v>
+        <v>4.146487270349628e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0002767620863916366</v>
+        <v>0.0001036768126646366</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0002691564720753678</v>
+        <v>0.0001012628484551056</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.000219491406371635</v>
+        <v>5.46372558036111e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0002026456975638445</v>
+        <v>2.827070275394605e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0001697047973173965</v>
+        <v>1.406288162859825e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0001308494197102459</v>
+        <v>1.441246997460613e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0001190011906821712</v>
+        <v>1.004186435290945e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0001018765792937398</v>
+        <v>8.836953134700458e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>9.677049848311936e-05</v>
+        <v>5.651620897507189e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>9.700471534065475e-05</v>
+        <v>6.395154183033086e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>9.584189195914411e-05</v>
+        <v>1.35817646798959e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>9.265626562205501e-05</v>
+        <v>8.978992218778627e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>9.309047076696053e-05</v>
+        <v>3.975401343218671e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>9.395146438873903e-05</v>
+        <v>3.397328555690949e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>0.000104761386054453</v>
+        <v>3.045494537126124e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0001139161269132072</v>
+        <v>3.82419989749366e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0001195034891110997</v>
+        <v>6.766986712549019e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0001201914223474013</v>
+        <v>1.560135919824208e-05</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0001175888033169416</v>
+        <v>1.747104795765649e-05</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0001112400825446189</v>
+        <v>2.015879305137513e-05</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>9.504945353254131e-05</v>
+        <v>2.079833728734298e-05</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>5.899780086194182e-05</v>
+        <v>1.844702697808565e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>4.954976822761468e-05</v>
+        <v>1.600645648866131e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>3.943707087660428e-05</v>
+        <v>1.19116380379093e-05</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>3.021183882118752e-05</v>
+        <v>1.076603344887296e-05</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>2.82794700476123e-05</v>
+        <v>1.010432008725593e-05</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>2.77327069838508e-05</v>
+        <v>1.016370798459491e-05</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>2.823482029155476e-05</v>
+        <v>9.831326094529729e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>2.682778979440063e-05</v>
+        <v>9.811655091826482e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>2.665504556353605e-05</v>
+        <v>1.122546485337623e-05</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>2.677547552423069e-05</v>
+        <v>1.478503367589055e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>2.667258902221871e-05</v>
+        <v>2.363224526351863e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>2.622686229961367e-05</v>
+        <v>3.577775992653283e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>2.570792955660804e-05</v>
+        <v>4.673824021018056e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>2.569828781226283e-05</v>
+        <v>6.159554676854749e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>2.302751634937379e-05</v>
+        <v>7.620805416856994e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>2.339938917077951e-05</v>
+        <v>8.204943074464312e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>2.352706055105205e-05</v>
+        <v>0.000101308896806173</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>2.339315384791628e-05</v>
+        <v>0.0001231785312458184</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>2.056051549897737e-05</v>
+        <v>0.0001240457023062327</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>1.778997401369857e-05</v>
+        <v>0.0001382515040305442</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>1.684480302007342e-05</v>
+        <v>0.0001405296290148165</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>1.640875126891526e-05</v>
+        <v>0.0001391150773969165</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>2.026782309923714e-05</v>
+        <v>0.0001363343835712115</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>3.500443713901343e-05</v>
+        <v>0.0001363475519418492</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>4.292407931188064e-05</v>
+        <v>0.0001290949236480015</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>4.552893318414057e-05</v>
+        <v>0.0001255049483678586</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>4.641471924487447e-05</v>
+        <v>0.0001021565773622782</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>4.719919708347634e-05</v>
+        <v>9.422300913514297e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>4.749248960318442e-05</v>
+        <v>7.883976704817905e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>4.569313215699314e-05</v>
+        <v>6.067707170055288e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>4.184556775287357e-05</v>
+        <v>5.512843828047096e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>2.604304846756013e-05</v>
+        <v>4.715311060470829e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>1.668214025490031e-05</v>
+        <v>4.476584005899799e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>1.493428491481972e-05</v>
+        <v>4.487319539092903e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>1.697213314211605e-05</v>
+        <v>4.431926729011384e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>2.364191572813681e-05</v>
+        <v>4.280684165776822e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>2.63262207614276e-05</v>
+        <v>4.298342093857755e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>3.976260249223769e-05</v>
+        <v>4.336282039479604e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>5.252857594659881e-05</v>
+        <v>4.832819650739077e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>5.448255511116432e-05</v>
+        <v>5.252120880791923e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>5.223911755175158e-05</v>
+        <v>5.506873016161867e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>4.699194412344639e-05</v>
+        <v>5.535235319429336e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>4.653341820154622e-05</v>
+        <v>5.412570411912459e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>4.153721827351176e-05</v>
+        <v>5.115452719689546e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>3.523566854667261e-05</v>
+        <v>4.366992095319832e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>3.213678198782551e-05</v>
+        <v>2.705606284071959e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>3.154279770747422e-05</v>
+        <v>2.270218188289266e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>3.113934223314045e-05</v>
+        <v>1.805363489833316e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>3.07687167321049e-05</v>
+        <v>1.380573661992869e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>2.881679562589832e-05</v>
+        <v>1.29088996763805e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>3.224451753200672e-05</v>
+        <v>1.26506116105346e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>3.708204214090967e-05</v>
+        <v>1.28724390248691e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>4.195723647653417e-05</v>
+        <v>1.222616180832715e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>4.738981505487016e-05</v>
+        <v>1.214497388489228e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>5.47758950145559e-05</v>
+        <v>1.219885623797485e-05</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>6.166983588852194e-05</v>
+        <v>1.215135395470405e-05</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>5.880371104350837e-05</v>
+        <v>1.194351226970445e-05</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>5.91781128016846e-05</v>
+        <v>1.170292080751136e-05</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>5.301287879958014e-05</v>
+        <v>1.16941319525259e-05</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>5.207256437160248e-05</v>
+        <v>1.047515238669066e-05</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>4.609364128887944e-05</v>
+        <v>1.064184354224407e-05</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>4.415957087000855e-05</v>
+        <v>1.069850668218129e-05</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>4.302583411259746e-05</v>
+        <v>1.06315557514742e-05</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>5.469763492420826e-05</v>
+        <v>9.335656094727895e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>4.777764333643466e-05</v>
+        <v>8.070271774583248e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>5.044888235878334e-05</v>
+        <v>7.634812958423795e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>4.569718050119573e-05</v>
+        <v>7.435227869001561e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>4.282471450225778e-05</v>
+        <v>9.177321484260827e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>4.06205824157317e-05</v>
+        <v>1.583528674591062e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>3.81622347125595e-05</v>
+        <v>1.940805434085457e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>3.524384676453397e-05</v>
+        <v>2.057410902779668e-05</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>3.567361460707424e-05</v>
+        <v>2.096182203834466e-05</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>1.828960568548131e-05</v>
+        <v>2.130816987165671e-05</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>7.543474825581573e-06</v>
+        <v>2.143674283589761e-05</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>4.667988731245182e-06</v>
+        <v>2.060153137556431e-05</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>6.586218412399592e-06</v>
+        <v>1.885868700496002e-05</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>4.094759461428903e-06</v>
+        <v>1.171382009229837e-05</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>3.324546866390041e-06</v>
+        <v>7.476076031943746e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>2.838056800142416e-06</v>
+        <v>6.667907287000599e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>2.923562023726533e-06</v>
+        <v>7.549878180200902e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>4.066805030761967e-06</v>
+        <v>1.049851368537142e-05</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>7.553930191123424e-06</v>
+        <v>1.168284424339739e-05</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>8.378527365028535e-06</v>
+        <v>1.762254798257974e-05</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>7.289944245768114e-06</v>
+        <v>2.323827782852736e-05</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>6.486464377331442e-06</v>
+        <v>2.408004919139922e-05</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.306747923257181e-05</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.073141374775496e-05</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.052889896103931e-05</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.830857424949896e-05</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.551629472563385e-05</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.413808773745533e-05</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.38696618656999e-05</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.368032192826734e-05</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.351238782977412e-05</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.26489766555088e-05</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.413829756680267e-05</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.624547838374032e-05</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.836555954137014e-05</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.07232887328882e-05</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.393167826405239e-05</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2.691783014057814e-05</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2.566667361263918e-05</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.580838319276164e-05</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.309718497983699e-05</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.268670448950962e-05</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.006699508472191e-05</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.922031340554586e-05</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.872575311935892e-05</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.379034085950489e-05</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.077460217020102e-05</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.191872035595933e-05</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.984716574961919e-05</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.859253477621831e-05</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.762919631257733e-05</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.655559487338619e-05</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.528392636303985e-05</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.546570846213649e-05</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>7.921631426216964e-06</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.264059824746838e-06</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.018783918141043e-06</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.848147864879399e-06</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.770570226965888e-06</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.436974472207096e-06</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.225816218967301e-06</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.261998194360026e-06</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.752155088721541e-06</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>3.248162158204803e-06</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3.595913220037238e-06</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>3.122344577240155e-06</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.776235804112907e-06</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints9.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints9.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>2.917158692373794e-07</v>
+        <v>3.837205269568334e-06</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>8.095543471318321e-07</v>
+        <v>5.016756361735329e-06</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>1.218274697371592e-06</v>
+        <v>7.429443456773879e-06</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>1.276555640586891e-06</v>
+        <v>1.067392569872639e-05</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>1.328049637259792e-06</v>
+        <v>1.455174762562872e-05</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>1.405120274777706e-06</v>
+        <v>3.043306232672005e-05</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>1.278605334213462e-06</v>
+        <v>5.116151980740297e-05</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>1.409422258198877e-06</v>
+        <v>0.0001398719127698307</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>1.047817349454759e-06</v>
+        <v>0.0002254707201058215</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>1.324937564438981e-06</v>
+        <v>0.0002464034467553326</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>1.034613565958322e-06</v>
+        <v>0.0001973789127445933</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>9.273891387729184e-07</v>
+        <v>0.0001017074471742133</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>1.450056875044862e-06</v>
+        <v>7.776401675004742e-05</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>1.132139074090833e-06</v>
+        <v>9.842323935175271e-05</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>1.158150467700573e-06</v>
+        <v>4.339772669549501e-05</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>1.005100004946271e-06</v>
+        <v>3.132568904311462e-05</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>1.030136733575301e-06</v>
+        <v>1.80448847510806e-05</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>1.325629156620791e-06</v>
+        <v>9.395468437677309e-06</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>1.089663207912881e-06</v>
+        <v>7.198131809351708e-06</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>1.268274205068961e-06</v>
+        <v>7.250703988152421e-06</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>2.412545079313225e-06</v>
+        <v>8.641518704107621e-06</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>2.702695263896253e-06</v>
+        <v>1.097945017847654e-05</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>3.588898189706737e-06</v>
+        <v>1.057972605214027e-05</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>3.930630445076592e-06</v>
+        <v>2.249480704677073e-05</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>3.450524292758229e-06</v>
+        <v>3.412146941150314e-05</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>4.200322652152451e-06</v>
+        <v>8.222498472783914e-05</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>3.835567068381012e-06</v>
+        <v>0.0002059853509441678</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>3.994744353073329e-06</v>
+        <v>0.0002015587410819942</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>3.919832236634071e-06</v>
+        <v>0.0001089514892350398</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>3.912286397055617e-06</v>
+        <v>5.647883160598923e-05</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>3.701343073996584e-06</v>
+        <v>2.814747479156345e-05</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>3.428197201319886e-06</v>
+        <v>2.889894002480733e-05</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>4.090413062990746e-06</v>
+        <v>2.017334291756137e-05</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>3.580550982394743e-06</v>
+        <v>1.778458157754602e-05</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>3.471147551181333e-06</v>
+        <v>1.138499757274173e-05</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>2.260202118427689e-06</v>
+        <v>1.289420362126745e-05</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>2.307051208605068e-06</v>
+        <v>2.743471855050056e-05</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>1.899751263432542e-06</v>
+        <v>1.82048171679061e-05</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>2.322146775795373e-06</v>
+        <v>8.075007083176488e-06</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>3.496461199298684e-06</v>
+        <v>6.913256436616582e-06</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>3.571149306675201e-06</v>
+        <v>6.220306076771117e-06</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>3.33107166207692e-06</v>
+        <v>7.839611118574261e-06</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>2.995264584784375e-06</v>
+        <v>1.392357839263745e-05</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>3.146874289096829e-06</v>
+        <v>3.213163260056483e-05</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>3.038600798920608e-06</v>
+        <v>3.600688979680807e-05</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>2.000257929086005e-06</v>
+        <v>4.16317700619642e-05</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>2.605459726578957e-06</v>
+        <v>4.299201162814683e-05</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>3.844374075314136e-06</v>
+        <v>3.816794229001826e-05</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>5.512846671672595e-06</v>
+        <v>3.317902048194039e-05</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>7.501893495856809e-06</v>
+        <v>2.47357246015434e-05</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>1.566072284952924e-05</v>
+        <v>2.239847681836442e-05</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>2.627948140299157e-05</v>
+        <v>2.103005591355924e-05</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>7.177934019540251e-05</v>
+        <v>2.116579377752708e-05</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0001155974590400509</v>
+        <v>2.049170370553901e-05</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0001261005336445171</v>
+        <v>2.048780484653129e-05</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0001008622505217899</v>
+        <v>2.352720340614373e-05</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>5.189529694007251e-05</v>
+        <v>3.108067173464023e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>3.966331117886268e-05</v>
+        <v>4.989568148524134e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>5.018308843800692e-05</v>
+        <v>7.567867567136091e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>2.211844232961609e-05</v>
+        <v>9.904924168415501e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>1.595755568548415e-05</v>
+        <v>0.0001307721616635598</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>9.183771061433539e-06</v>
+        <v>0.0001619804338640858</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>4.772713355961914e-06</v>
+        <v>0.0001745262598441358</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>3.655181532066447e-06</v>
+        <v>0.000215760398714545</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>3.679909160953748e-06</v>
+        <v>0.0002628127075823914</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>4.38174799378459e-06</v>
+        <v>0.0002648347342074572</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>5.561909261808188e-06</v>
+        <v>0.0002955172302036064</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>5.35529987520814e-06</v>
+        <v>0.0003006699691410506</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>1.137468008316174e-05</v>
+        <v>0.0002978015721991829</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>1.723732333023558e-05</v>
+        <v>0.000292016932021493</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>4.146487270349628e-05</v>
+        <v>0.0002921620169774357</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0001036768126646366</v>
+        <v>0.0002767620863916366</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0001012628484551056</v>
+        <v>0.0002691564720753678</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>5.46372558036111e-05</v>
+        <v>0.000219491406371635</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>2.827070275394605e-05</v>
+        <v>0.0002026456975638445</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>1.406288162859825e-05</v>
+        <v>0.0001697047973173965</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>1.441246997460613e-05</v>
+        <v>0.0001308494197102459</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>1.004186435290945e-05</v>
+        <v>0.0001190011906821712</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>8.836953134700458e-06</v>
+        <v>0.0001018765792937398</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>5.651620897507189e-06</v>
+        <v>9.677049848311936e-05</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>6.395154183033086e-06</v>
+        <v>9.700471534065475e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>1.35817646798959e-05</v>
+        <v>9.584189195914411e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>8.978992218778627e-06</v>
+        <v>9.265626562205501e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>3.975401343218671e-06</v>
+        <v>9.309047076696053e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>3.397328555690949e-06</v>
+        <v>9.395146438873903e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>3.045494537126124e-06</v>
+        <v>0.000104761386054453</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>3.82419989749366e-06</v>
+        <v>0.0001139161269132072</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>6.766986712549019e-06</v>
+        <v>0.0001195034891110997</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>1.560135919824208e-05</v>
+        <v>0.0001201914223474013</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>1.747104795765649e-05</v>
+        <v>0.0001175888033169416</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>2.015879305137513e-05</v>
+        <v>0.0001112400825446189</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>2.079833728734298e-05</v>
+        <v>9.504945353254131e-05</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>1.844702697808565e-05</v>
+        <v>5.899780086194182e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>1.600645648866131e-05</v>
+        <v>4.954976822761468e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>1.19116380379093e-05</v>
+        <v>3.943707087660428e-05</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>1.076603344887296e-05</v>
+        <v>3.021183882118752e-05</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>1.010432008725593e-05</v>
+        <v>2.82794700476123e-05</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>1.016370798459491e-05</v>
+        <v>2.77327069838508e-05</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>9.831326094529729e-06</v>
+        <v>2.823482029155476e-05</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>9.811655091826482e-06</v>
+        <v>2.682778979440063e-05</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>1.122546485337623e-05</v>
+        <v>2.665504556353605e-05</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>1.478503367589055e-05</v>
+        <v>2.677547552423069e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>2.363224526351863e-05</v>
+        <v>2.667258902221871e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>3.577775992653283e-05</v>
+        <v>2.622686229961367e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>4.673824021018056e-05</v>
+        <v>2.570792955660804e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>6.159554676854749e-05</v>
+        <v>2.569828781226283e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>7.620805416856994e-05</v>
+        <v>2.302751634937379e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>8.204943074464312e-05</v>
+        <v>2.339938917077951e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>0.000101308896806173</v>
+        <v>2.352706055105205e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0001231785312458184</v>
+        <v>2.339315384791628e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0001240457023062327</v>
+        <v>2.056051549897737e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0001382515040305442</v>
+        <v>1.778997401369857e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0001405296290148165</v>
+        <v>1.684480302007342e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0001391150773969165</v>
+        <v>1.640875126891526e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0001363343835712115</v>
+        <v>2.026782309923714e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0001363475519418492</v>
+        <v>3.500443713901343e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0001290949236480015</v>
+        <v>4.292407931188064e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0001255049483678586</v>
+        <v>4.552893318414057e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0001021565773622782</v>
+        <v>4.641471924487447e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>9.422300913514297e-05</v>
+        <v>4.719919708347634e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>7.883976704817905e-05</v>
+        <v>4.749248960318442e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>6.067707170055288e-05</v>
+        <v>4.569313215699314e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>5.512843828047096e-05</v>
+        <v>4.184556775287357e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>4.715311060470829e-05</v>
+        <v>2.604304846756013e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>4.476584005899799e-05</v>
+        <v>1.668214025490031e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>4.487319539092903e-05</v>
+        <v>1.493428491481972e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>4.431926729011384e-05</v>
+        <v>1.697213314211605e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>4.280684165776822e-05</v>
+        <v>2.364191572813681e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>4.298342093857755e-05</v>
+        <v>2.63262207614276e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>4.336282039479604e-05</v>
+        <v>3.976260249223769e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>4.832819650739077e-05</v>
+        <v>5.252857594659881e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>5.252120880791923e-05</v>
+        <v>5.448255511116432e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>5.506873016161867e-05</v>
+        <v>5.223911755175158e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>5.535235319429336e-05</v>
+        <v>4.699194412344639e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>5.412570411912459e-05</v>
+        <v>4.653341820154622e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>5.115452719689546e-05</v>
+        <v>4.153721827351176e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>4.366992095319832e-05</v>
+        <v>3.523566854667261e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>2.705606284071959e-05</v>
+        <v>3.213678198782551e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>2.270218188289266e-05</v>
+        <v>3.154279770747422e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>1.805363489833316e-05</v>
+        <v>3.113934223314045e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>1.380573661992869e-05</v>
+        <v>3.07687167321049e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>1.29088996763805e-05</v>
+        <v>2.881679562589832e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>1.26506116105346e-05</v>
+        <v>3.224451753200672e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>1.28724390248691e-05</v>
+        <v>3.708204214090967e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>1.222616180832715e-05</v>
+        <v>4.195723647653417e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>1.214497388489228e-05</v>
+        <v>4.738981505487016e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>1.219885623797485e-05</v>
+        <v>5.47758950145559e-05</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>1.215135395470405e-05</v>
+        <v>6.166983588852194e-05</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>1.194351226970445e-05</v>
+        <v>5.880371104350837e-05</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>1.170292080751136e-05</v>
+        <v>5.91781128016846e-05</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>1.16941319525259e-05</v>
+        <v>5.301287879958014e-05</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>1.047515238669066e-05</v>
+        <v>5.207256437160248e-05</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>1.064184354224407e-05</v>
+        <v>4.609364128887944e-05</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>1.069850668218129e-05</v>
+        <v>4.415957087000855e-05</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>1.06315557514742e-05</v>
+        <v>4.302583411259746e-05</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>9.335656094727895e-06</v>
+        <v>5.469763492420826e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>8.070271774583248e-06</v>
+        <v>4.777764333643466e-05</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>7.634812958423795e-06</v>
+        <v>5.044888235878334e-05</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>7.435227869001561e-06</v>
+        <v>4.569718050119573e-05</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>9.177321484260827e-06</v>
+        <v>4.282471450225778e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>1.583528674591062e-05</v>
+        <v>4.06205824157317e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>1.940805434085457e-05</v>
+        <v>3.81622347125595e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>2.057410902779668e-05</v>
+        <v>3.524384676453397e-05</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>2.096182203834466e-05</v>
+        <v>3.567361460707424e-05</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>2.130816987165671e-05</v>
+        <v>1.828960568548131e-05</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>2.143674283589761e-05</v>
+        <v>7.543474825581573e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>2.060153137556431e-05</v>
+        <v>4.667988731245182e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>1.885868700496002e-05</v>
+        <v>6.586218412399592e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>1.171382009229837e-05</v>
+        <v>4.094759461428903e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>7.476076031943746e-06</v>
+        <v>3.324546866390041e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>6.667907287000599e-06</v>
+        <v>2.838056800142416e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>7.549878180200902e-06</v>
+        <v>2.923562023726533e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>1.049851368537142e-05</v>
+        <v>4.066805030761967e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>1.168284424339739e-05</v>
+        <v>7.553930191123424e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>1.762254798257974e-05</v>
+        <v>8.378527365028535e-06</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>2.323827782852736e-05</v>
+        <v>7.289944245768114e-06</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>2.408004919139922e-05</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>2.306747923257181e-05</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>2.073141374775496e-05</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>2.052889896103931e-05</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1.830857424949896e-05</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1.551629472563385e-05</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1.413808773745533e-05</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1.38696618656999e-05</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1.368032192826734e-05</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1.351238782977412e-05</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1.26489766555088e-05</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1.413829756680267e-05</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1.624547838374032e-05</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1.836555954137014e-05</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2.07232887328882e-05</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>2.393167826405239e-05</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>2.691783014057814e-05</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>2.566667361263918e-05</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>2.580838319276164e-05</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2.309718497983699e-05</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2.268670448950962e-05</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.006699508472191e-05</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1.922031340554586e-05</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1.872575311935892e-05</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.379034085950489e-05</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.077460217020102e-05</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.191872035595933e-05</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.984716574961919e-05</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.859253477621831e-05</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.762919631257733e-05</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.655559487338619e-05</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.528392636303985e-05</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.546570846213649e-05</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>7.921631426216964e-06</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>3.264059824746838e-06</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>2.018783918141043e-06</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>2.848147864879399e-06</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1.770570226965888e-06</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1.436974472207096e-06</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1.225816218967301e-06</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.261998194360026e-06</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.752155088721541e-06</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>3.248162158204803e-06</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3.595913220037238e-06</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>3.122344577240155e-06</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>2.776235804112907e-06</v>
+        <v>6.486464377331442e-06</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints9.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints9.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>3.837205269568334e-06</v>
+        <v>456597533007.1404</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>5.016756361735329e-06</v>
+        <v>789107916376.7563</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>7.429443456773879e-06</v>
+        <v>1107073807982.366</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>1.067392569872639e-05</v>
+        <v>1108200448714.251</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>1.455174762562872e-05</v>
+        <v>1364395325961.268</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>3.043306232672005e-05</v>
+        <v>1302870174954.963</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>5.116151980740297e-05</v>
+        <v>1261720565465.543</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001398719127698307</v>
+        <v>1377984917683.735</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002254707201058215</v>
+        <v>977719757994.0297</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002464034467553326</v>
+        <v>1240115063368.555</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001973789127445933</v>
+        <v>1384128370659.674</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001017074471742133</v>
+        <v>890854341968.3318</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>7.776401675004742e-05</v>
+        <v>1333546624437.947</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>9.842323935175271e-05</v>
+        <v>1030951031248.88</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>4.339772669549501e-05</v>
+        <v>1111998042904.167</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>3.132568904311462e-05</v>
+        <v>942153706868.6447</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>1.80448847510806e-05</v>
+        <v>975418442222.271</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>9.395468437677309e-06</v>
+        <v>1235798150371.58</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>7.198131809351708e-06</v>
+        <v>1021251277643.466</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>7.250703988152421e-06</v>
+        <v>1218011315976.917</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>8.641518704107621e-06</v>
+        <v>2192846617295.223</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>1.097945017847654e-05</v>
+        <v>2558460112220.417</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>1.057972605214027e-05</v>
+        <v>3574037865786.274</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>2.249480704677073e-05</v>
+        <v>3791901752282.023</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>3.412146941150314e-05</v>
+        <v>3576303218175.928</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>8.222498472783914e-05</v>
+        <v>3938381987924.014</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0002059853509441678</v>
+        <v>3853596958756.347</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0002015587410819942</v>
+        <v>3818177625003.958</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0001089514892350398</v>
+        <v>3751175367699.147</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>5.647883160598923e-05</v>
+        <v>3808325161123.36</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>2.814747479156345e-05</v>
+        <v>3570130755928.404</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>2.889894002480733e-05</v>
+        <v>3368718173226.849</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>2.017334291756137e-05</v>
+        <v>3810290008176.709</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>1.778458157754602e-05</v>
+        <v>3390511607867.176</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.138499757274173e-05</v>
+        <v>3244374708240.522</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>1.289420362126745e-05</v>
+        <v>2187313485477.954</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>2.743471855050056e-05</v>
+        <v>2173111944735.261</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>1.82048171679061e-05</v>
+        <v>2052443588953.847</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>8.075007083176488e-06</v>
+        <v>2195356890253.22</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>6.913256436616582e-06</v>
+        <v>3275959141741.829</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>6.220306076771117e-06</v>
+        <v>3372592045036.11</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>7.839611118574261e-06</v>
+        <v>3098806627847.256</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>1.392357839263745e-05</v>
+        <v>2799112352567.893</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>3.213163260056483e-05</v>
+        <v>2924121325614.332</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>3.600688979680807e-05</v>
+        <v>2841619652632.136</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>4.16317700619642e-05</v>
+        <v>1854804872728.726</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>4.299201162814683e-05</v>
+        <v>2435475210068.087</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>3.816794229001826e-05</v>
+        <v>3576059137166.322</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>3.317902048194039e-05</v>
+        <v>5161708239683.945</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>2.47357246015434e-05</v>
+        <v>7011921487719.859</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>2.239847681836442e-05</v>
+        <v>14578365621171.6</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>2.103005591355924e-05</v>
+        <v>24464382227988.7</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>2.116579377752708e-05</v>
+        <v>67026338091339.57</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>2.049170370553901e-05</v>
+        <v>107844068900293.3</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>2.048780484653129e-05</v>
+        <v>117468383602367.5</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>2.352720340614373e-05</v>
+        <v>94008653080951.84</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>3.108067173464023e-05</v>
+        <v>48475171949275.14</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>4.989568148524134e-05</v>
+        <v>37081786106562.1</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>7.567867567136091e-05</v>
+        <v>46825036640582.91</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>9.904924168415501e-05</v>
+        <v>20613215984888.4</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0001307721616635598</v>
+        <v>14833772805256.28</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0001619804338640858</v>
+        <v>8519583129949.557</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0001745262598441358</v>
+        <v>4452790635675.155</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>0.000215760398714545</v>
+        <v>3415885840742.907</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0002628127075823914</v>
+        <v>3464933607752.703</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0002648347342074572</v>
+        <v>4080463109479</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0002955172302036064</v>
+        <v>5306711198022.215</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0003006699691410506</v>
+        <v>5125511542110.895</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0002978015721991829</v>
+        <v>10383609120156.09</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>0.000292016932021493</v>
+        <v>16293749537284.64</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0002921620169774357</v>
+        <v>38701267826377.33</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0002767620863916366</v>
+        <v>96735004168152.33</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0002691564720753678</v>
+        <v>94531822214255.66</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>0.000219491406371635</v>
+        <v>50948675209006.85</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0002026456975638445</v>
+        <v>26505061801068.92</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0001697047973173965</v>
+        <v>13116061166462.83</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0001308494197102459</v>
+        <v>13493290245770.62</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0001190011906821712</v>
+        <v>9556356310977.914</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0001018765792937398</v>
+        <v>8239308418406.283</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>9.677049848311936e-05</v>
+        <v>5259669659312.172</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>9.700471534065475e-05</v>
+        <v>5958002340363.537</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>9.584189195914411e-05</v>
+        <v>12644581638633.4</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>9.265626562205501e-05</v>
+        <v>8356096891620.105</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>9.309047076696053e-05</v>
+        <v>3694346489263.515</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>9.395146438873903e-05</v>
+        <v>3163954766368.636</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>0.000104761386054453</v>
+        <v>2841709851770.267</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0001139161269132072</v>
+        <v>3538460390917.25</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0001195034891110997</v>
+        <v>6309849913820.255</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0001201914223474013</v>
+        <v>14523607240234.27</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0001175888033169416</v>
+        <v>16247417396272.35</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0001112400825446189</v>
+        <v>18828538586621.88</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>9.504945353254131e-05</v>
+        <v>19346922443555.2</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>5.899780086194182e-05</v>
+        <v>17123669482280.62</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>4.954976822761468e-05</v>
+        <v>14935175315093.87</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>3.943707087660428e-05</v>
+        <v>11093445758231.63</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>3.021183882118752e-05</v>
+        <v>10052936039203.39</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>2.82794700476123e-05</v>
+        <v>9441218884296.215</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>2.77327069838508e-05</v>
+        <v>9403918780340.367</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>2.823482029155476e-05</v>
+        <v>9185020215727.068</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>2.682778979440063e-05</v>
+        <v>9134351400947.443</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>2.665504556353605e-05</v>
+        <v>10460217993096.17</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>2.677547552423069e-05</v>
+        <v>13799261546220.65</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>2.667258902221871e-05</v>
+        <v>22024745660616.29</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>2.622686229961367e-05</v>
+        <v>33321269638880.93</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>2.570792955660804e-05</v>
+        <v>43570019922523.64</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>2.569828781226283e-05</v>
+        <v>57346601439294.75</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>2.302751634937379e-05</v>
+        <v>71029651693189.8</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>2.339938917077951e-05</v>
+        <v>76448477798860.08</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>2.352706055105205e-05</v>
+        <v>94513383026344.5</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>2.339315384791628e-05</v>
+        <v>114791804121668.6</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>2.056051549897737e-05</v>
+        <v>115590810260960.6</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>1.778997401369857e-05</v>
+        <v>128745595644749</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>1.684480302007342e-05</v>
+        <v>130902806503624.2</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>1.640875126891526e-05</v>
+        <v>129618105398770.9</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>2.026782309923714e-05</v>
+        <v>127070228013513.3</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>3.500443713901343e-05</v>
+        <v>126868311333298.5</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>4.292407931188064e-05</v>
+        <v>120248219496934.6</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>4.552893318414057e-05</v>
+        <v>116942263435788.3</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>4.641471924487447e-05</v>
+        <v>95164751298803.55</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>4.719919708347634e-05</v>
+        <v>87743013487713.92</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>4.749248960318442e-05</v>
+        <v>73534790744569.39</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>4.569313215699314e-05</v>
+        <v>56524363932793.45</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>4.184556775287357e-05</v>
+        <v>51345936238761.4</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>2.604304846756013e-05</v>
+        <v>43989866278264.22</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>1.668214025490031e-05</v>
+        <v>41715314871396.15</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>1.493428491481972e-05</v>
+        <v>41844937096910.3</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>1.697213314211605e-05</v>
+        <v>41390423743608.62</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>2.364191572813681e-05</v>
+        <v>39899407460805.52</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>2.63262207614276e-05</v>
+        <v>40120070090704.95</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>3.976260249223769e-05</v>
+        <v>40371164762469.55</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>5.252857594659881e-05</v>
+        <v>45038390310333.88</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>5.448255511116432e-05</v>
+        <v>48902127988133.9</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>5.223911755175158e-05</v>
+        <v>51271412341792.84</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>4.699194412344639e-05</v>
+        <v>51635739604247.55</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>4.653341820154622e-05</v>
+        <v>50381915672580.95</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>4.153721827351176e-05</v>
+        <v>47637436944222.9</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>3.523566854667261e-05</v>
+        <v>40714258581887.02</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>3.213678198782551e-05</v>
+        <v>25193751077130.63</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>3.154279770747422e-05</v>
+        <v>21089438174627.2</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>3.113934223314045e-05</v>
+        <v>16845496697238.37</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>3.07687167321049e-05</v>
+        <v>12884963024232.12</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>2.881679562589832e-05</v>
+        <v>12005311689532.35</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>3.224451753200672e-05</v>
+        <v>11723428151993.74</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>3.708204214090967e-05</v>
+        <v>11981835998420.03</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>4.195723647653417e-05</v>
+        <v>11393007452521.16</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>4.738981505487016e-05</v>
+        <v>11374254419508.61</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>5.47758950145559e-05</v>
+        <v>11385825082058.37</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>6.166983588852194e-05</v>
+        <v>11332929078198.05</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>5.880371104350837e-05</v>
+        <v>11119841754657.09</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>5.91781128016846e-05</v>
+        <v>10853887264810.26</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>5.301287879958014e-05</v>
+        <v>10849342983059.42</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>5.207256437160248e-05</v>
+        <v>9804540099629.688</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>4.609364128887944e-05</v>
+        <v>9906032392016.637</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>4.415957087000855e-05</v>
+        <v>9994358267197.17</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>4.302583411259746e-05</v>
+        <v>9904466466275.227</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>5.469763492420826e-05</v>
+        <v>8706062860630.438</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>4.777764333643466e-05</v>
+        <v>7568072974590.892</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>5.044888235878334e-05</v>
+        <v>7104574171146.794</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>4.569718050119573e-05</v>
+        <v>6919074086163.68</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>4.282471450225778e-05</v>
+        <v>8530683739285.094</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>4.06205824157317e-05</v>
+        <v>14845634313303.02</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>3.81622347125595e-05</v>
+        <v>18041427806491.64</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>3.524384676453397e-05</v>
+        <v>19159603163935.86</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>3.567361460707424e-05</v>
+        <v>19481160209942.96</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>1.828960568548131e-05</v>
+        <v>19821225668944.89</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>7.543474825581573e-06</v>
+        <v>19971194765648.6</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>4.667988731245182e-06</v>
+        <v>19168406474056.53</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>6.586218412399592e-06</v>
+        <v>17597613834996.24</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>4.094759461428903e-06</v>
+        <v>10911716139876.87</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>3.324546866390041e-06</v>
+        <v>6959233826050.241</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>2.838056800142416e-06</v>
+        <v>6217875660461.158</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>2.923562023726533e-06</v>
+        <v>7041835549682.994</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>4.066805030761967e-06</v>
+        <v>9805812337378.252</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>7.553930191123424e-06</v>
+        <v>10856340037390.29</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>8.378527365028535e-06</v>
+        <v>16365631606888.72</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>7.289944245768114e-06</v>
+        <v>21769915060174.4</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>6.486464377331442e-06</v>
+        <v>22411428532985.25</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>21481484665206.59</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>19268878985438.47</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>19127144262928.75</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>17058965465306.48</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>14442247299493.95</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>13209163218150.84</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>13022206362647.62</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>12785114899068.35</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>12616998463604.05</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>11836175439115.13</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>13205056914036.06</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>15178076566919.5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>17122952908594.47</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>19269902477134.58</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>22275158944874.18</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>25095325552948.04</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>23921133960287.37</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>23986480485683.5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>21528052062905.7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>21140454051402.68</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>18729303079071.36</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>17932902949463.2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>17475208299047.1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>22170902198915.42</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>19343768206825.34</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>20367279798664.82</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>18499991195911.92</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>17332788413182.27</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>16423086852515.47</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>15389129663784.26</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>14234059674964.78</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>14439797491491.94</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>7402924195185.356</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3037604895413.232</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1878652023570.042</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2653687476313.881</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1649027576170.402</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1335900112571.003</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1131782654414.764</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1151250376921.739</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1636041797555.699</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>3020637369670.342</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3345380193371.492</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2906043191848.977</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2580969282265.871</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints9.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints9.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>456597533007.1404</v>
+        <v>4.363853826293917e-06</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>789107916376.7563</v>
+        <v>5.520508677990977e-06</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>1107073807982.366</v>
+        <v>8.118554866909959e-06</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>1108200448714.251</v>
+        <v>1.183157773390341e-05</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>1364395325961.268</v>
+        <v>1.610417938050963e-05</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>1302870174954.963</v>
+        <v>3.275753156923143e-05</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>1261720565465.543</v>
+        <v>5.515247421279772e-05</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>1377984917683.735</v>
+        <v>0.0001482309959265918</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>977719757994.0297</v>
+        <v>0.0002380901047602569</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>1240115063368.555</v>
+        <v>0.0002616334661388266</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>1384128370659.674</v>
+        <v>0.000208839970601516</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>890854341968.3318</v>
+        <v>0.000107429165505362</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>1333546624437.947</v>
+        <v>8.285780826847026e-05</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>1030951031248.88</v>
+        <v>0.0001046886175275829</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>1111998042904.167</v>
+        <v>4.67785271441833e-05</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>942153706868.6447</v>
+        <v>3.31474456439819e-05</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>975418442222.271</v>
+        <v>1.93420259292259e-05</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>1235798150371.58</v>
+        <v>1.047485161457148e-05</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>1021251277643.466</v>
+        <v>8.00607451861847e-06</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>1218011315976.917</v>
+        <v>7.973399862889414e-06</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>2192846617295.223</v>
+        <v>9.787530388970836e-06</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>2558460112220.417</v>
+        <v>1.226437031696115e-05</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>3574037865786.274</v>
+        <v>1.18010731055158e-05</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>3791901752282.023</v>
+        <v>2.429095518721118e-05</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>3576303218175.928</v>
+        <v>3.776838693230734e-05</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>3938381987924.014</v>
+        <v>8.736256442895958e-05</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>3853596958756.347</v>
+        <v>0.0002206204971084181</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>3818177625003.958</v>
+        <v>0.0002168975716254476</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>3751175367699.147</v>
+        <v>0.0001150471285970805</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>3808325161123.36</v>
+        <v>6.070392009340221e-05</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>3570130755928.404</v>
+        <v>3.044246202040002e-05</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>3368718173226.849</v>
+        <v>3.089315196062536e-05</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>3810290008176.709</v>
+        <v>2.112150168130619e-05</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>3390511607867.176</v>
+        <v>1.958859974424398e-05</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>3244374708240.522</v>
+        <v>1.176223434019855e-05</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>2187313485477.954</v>
+        <v>1.414036052736459e-05</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>2173111944735.261</v>
+        <v>2.993888849326328e-05</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>2052443588953.847</v>
+        <v>1.978141145283046e-05</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>2195356890253.22</v>
+        <v>8.832126464197146e-06</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>3275959141741.829</v>
+        <v>7.87150746123891e-06</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>3372592045036.11</v>
+        <v>6.969989980627107e-06</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>3098806627847.256</v>
+        <v>8.410789460317129e-06</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>2799112352567.893</v>
+        <v>1.539625386965283e-05</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>2924121325614.332</v>
+        <v>3.468751169969507e-05</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>2841619652632.136</v>
+        <v>3.892433565717728e-05</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>1854804872728.726</v>
+        <v>4.515654036377705e-05</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>2435475210068.087</v>
+        <v>4.613550175998543e-05</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>3576059137166.322</v>
+        <v>4.059350282841054e-05</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>5161708239683.945</v>
+        <v>3.600735137954428e-05</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>7011921487719.859</v>
+        <v>2.701307353251667e-05</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>14578365621171.6</v>
+        <v>2.482072490896525e-05</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>24464382227988.7</v>
+        <v>2.307289168380658e-05</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>67026338091339.57</v>
+        <v>2.298248653895006e-05</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>107844068900293.3</v>
+        <v>2.239925244815592e-05</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>117468383602367.5</v>
+        <v>2.225826938835388e-05</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>94008653080951.84</v>
+        <v>2.555726293715753e-05</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>48475171949275.14</v>
+        <v>3.385963210632061e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>37081786106562.1</v>
+        <v>5.392494241300035e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>46825036640582.91</v>
+        <v>8.044072860927111e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>20613215984888.4</v>
+        <v>0.0001057205785059107</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>14833772805256.28</v>
+        <v>0.000139002712250468</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>8519583129949.557</v>
+        <v>0.0001720031157827338</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>4452790635675.155</v>
+        <v>0.0001850084885370552</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>3415885840742.907</v>
+        <v>0.0002291943377369718</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>3464933607752.703</v>
+        <v>0.0002781270595439885</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>4080463109479</v>
+        <v>0.000280762699080156</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>5306711198022.215</v>
+        <v>0.0003123508724212577</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>5125511542110.895</v>
+        <v>0.0003181268922352474</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>10383609120156.09</v>
+        <v>0.0003154201167022576</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>16293749537284.64</v>
+        <v>0.000309248816848882</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>38701267826377.33</v>
+        <v>0.0003084582223312895</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>96735004168152.33</v>
+        <v>0.0002923358630470026</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>94531822214255.66</v>
+        <v>0.000284964377516892</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>50948675209006.85</v>
+        <v>0.0002325476530841168</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>26505061801068.92</v>
+        <v>0.0002149085776989099</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>13116061166462.83</v>
+        <v>0.0001801042816300441</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>13493290245770.62</v>
+        <v>0.0001386910129540498</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>9556356310977.914</v>
+        <v>0.0001263946301407081</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>8239308418406.283</v>
+        <v>0.0001085535662948193</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>5259669659312.172</v>
+        <v>0.0001029718285279801</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>5958002340363.537</v>
+        <v>0.0001034666292664176</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>12644581638633.4</v>
+        <v>0.0001023706019020866</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>8356096891620.105</v>
+        <v>9.862344959870077e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>3694346489263.515</v>
+        <v>9.934612125632924e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>3163954766368.636</v>
+        <v>0.0001003645653973494</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>2841709851770.267</v>
+        <v>0.0001110769823301194</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>3538460390917.25</v>
+        <v>0.0001211325467997498</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>6309849913820.255</v>
+        <v>0.0001269545726223693</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>14523607240234.27</v>
+        <v>0.0001281893718634142</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>16247417396272.35</v>
+        <v>0.0001246978767069973</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>18828538586621.88</v>
+        <v>0.000117992972633872</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>19346922443555.2</v>
+        <v>0.0001012399141855323</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>17123669482280.62</v>
+        <v>6.299401605801551e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>14935175315093.87</v>
+        <v>5.28405614693898e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>11093445758231.63</v>
+        <v>4.258613949718349e-05</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>10052936039203.39</v>
+        <v>3.271012147108496e-05</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>9441218884296.215</v>
+        <v>3.071840772858994e-05</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>9403918780340.367</v>
+        <v>3.007016445205234e-05</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>9185020215727.068</v>
+        <v>3.070461760070168e-05</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>9134351400947.443</v>
+        <v>2.912906178263675e-05</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>10460217993096.17</v>
+        <v>2.90711778564292e-05</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>13799261546220.65</v>
+        <v>2.92874658291028e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>22024745660616.29</v>
+        <v>2.891683365855911e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>33321269638880.93</v>
+        <v>2.829637370484311e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>43570019922523.64</v>
+        <v>2.75276043935613e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>57346601439294.75</v>
+        <v>2.712631875523277e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>71029651693189.8</v>
+        <v>2.541752837321997e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>76448477798860.08</v>
+        <v>2.556769680055536e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>94513383026344.5</v>
+        <v>2.601432776195802e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>114791804121668.6</v>
+        <v>2.566405112590384e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>115590810260960.6</v>
+        <v>2.255843193873134e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>128745595644749</v>
+        <v>1.978826405444806e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>130902806503624.2</v>
+        <v>1.85761019879702e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>129618105398770.9</v>
+        <v>1.802538730348801e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>127070228013513.3</v>
+        <v>2.247391393570691e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>126868311333298.5</v>
+        <v>3.834955982948889e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>120248219496934.6</v>
+        <v>4.623421380654851e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>116942263435788.3</v>
+        <v>4.920636910727829e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>95164751298803.55</v>
+        <v>4.985617897446055e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>87743013487713.92</v>
+        <v>5.119284368037343e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>73534790744569.39</v>
+        <v>5.13478548365322e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>56524363932793.45</v>
+        <v>4.918084757272557e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>51345936238761.4</v>
+        <v>4.53485322502443e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>43989866278264.22</v>
+        <v>2.829451792899247e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>41715314871396.15</v>
+        <v>1.823023348026528e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>41844937096910.3</v>
+        <v>1.654551981636018e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>41390423743608.62</v>
+        <v>1.850775336654914e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>39899407460805.52</v>
+        <v>2.591024899177078e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>40120070090704.95</v>
+        <v>2.867413578712334e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>40371164762469.55</v>
+        <v>4.286162437029398e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>45038390310333.88</v>
+        <v>5.650254422230909e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>48902127988133.9</v>
+        <v>5.898135888204229e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>51271412341792.84</v>
+        <v>5.620199853370128e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>51635739604247.55</v>
+        <v>5.011511946287543e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>50381915672580.95</v>
+        <v>4.443875285240149e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>47637436944222.9</v>
+        <v>3.774117984056297e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>40714258581887.02</v>
+        <v>3.486526084384503e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>25193751077130.63</v>
+        <v>3.472815243662314e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>21089438174627.2</v>
+        <v>3.328885030690304e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>16845496697238.37</v>
+        <v>3.31624471403156e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>12884963024232.12</v>
+        <v>3.198119092117967e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>12005311689532.35</v>
+        <v>3.514370456921267e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>11723428151993.74</v>
+        <v>4.031465548985769e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>11981835998420.03</v>
+        <v>4.52487315108198e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>11393007452521.16</v>
+        <v>5.098868785281226e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>11374254419508.61</v>
+        <v>5.863902572536814e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>11385825082058.37</v>
+        <v>6.450298591283892e-05</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>11332929078198.05</v>
+        <v>6.294091996409052e-05</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>11119841754657.09</v>
+        <v>5.678091428753896e-05</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>10853887264810.26</v>
+        <v>5.582162020761244e-05</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>10849342983059.42</v>
+        <v>4.956722956577929e-05</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>9804540099629.688</v>
+        <v>4.752044621909365e-05</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>9906032392016.637</v>
+        <v>4.63638025642707e-05</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>9994358267197.17</v>
+        <v>5.846632043900527e-05</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>9904466466275.227</v>
+        <v>5.133002926170668e-05</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>8706062860630.438</v>
+        <v>5.399105560063171e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>7568072974590.892</v>
+        <v>4.909930055350195e-05</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>7104574171146.794</v>
+        <v>4.606632217984219e-05</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>6919074086163.68</v>
+        <v>4.380957495903312e-05</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>8530683739285.094</v>
+        <v>4.059121240912226e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>14845634313303.02</v>
+        <v>3.7965333016812e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>18041427806491.64</v>
+        <v>3.877449400196427e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>19159603163935.86</v>
+        <v>2.012191411951918e-05</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>19481160209942.96</v>
+        <v>8.347972518047198e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>19821225668944.89</v>
+        <v>5.044328668803247e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>19971194765648.6</v>
+        <v>7.264603068577189e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>19168406474056.53</v>
+        <v>4.526433215771749e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>17597613834996.24</v>
+        <v>3.629554443980352e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>10911716139876.87</v>
+        <v>3.055719368926569e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>6959233826050.241</v>
+        <v>3.088421097222066e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>6217875660461.158</v>
+        <v>4.535282667345602e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>7041835549682.994</v>
+        <v>8.321484569526422e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>9805812337378.252</v>
+        <v>9.248069762583241e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>10856340037390.29</v>
+        <v>8.012795122169605e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>16365631606888.72</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>21769915060174.4</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>22411428532985.25</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>21481484665206.59</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>19268878985438.47</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>19127144262928.75</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>17058965465306.48</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>14442247299493.95</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>13209163218150.84</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>13022206362647.62</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>12785114899068.35</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>12616998463604.05</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>11836175439115.13</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>13205056914036.06</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>15178076566919.5</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>17122952908594.47</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>19269902477134.58</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>22275158944874.18</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>25095325552948.04</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>23921133960287.37</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>23986480485683.5</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>21528052062905.7</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>21140454051402.68</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>18729303079071.36</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>17932902949463.2</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>17475208299047.1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>22170902198915.42</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>19343768206825.34</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>20367279798664.82</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>18499991195911.92</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>17332788413182.27</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>16423086852515.47</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>15389129663784.26</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>14234059674964.78</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>14439797491491.94</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>7402924195185.356</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>3037604895413.232</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1878652023570.042</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>2653687476313.881</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1649027576170.402</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1335900112571.003</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1131782654414.764</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1151250376921.739</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1636041797555.699</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>3020637369670.342</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3345380193371.492</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>2906043191848.977</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>2580969282265.871</v>
+        <v>7.129182721827943e-06</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints9.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints9.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>4.363853826293917e-06</v>
+        <v>2.283493955161903e-06</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>5.520508677990977e-06</v>
+        <v>3.4245009965402e-06</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>8.118554866909959e-06</v>
+        <v>5.793150202373412e-06</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>1.183157773390341e-05</v>
+        <v>9.773610146198149e-06</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>1.610417938050963e-05</v>
+        <v>1.446629491284844e-05</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>3.275753156923143e-05</v>
+        <v>3.004382863773101e-05</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>5.515247421279772e-05</v>
+        <v>5.35204375786156e-05</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001482309959265918</v>
+        <v>0.0001447216916185017</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002380901047602569</v>
+        <v>0.0002331046475722992</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002616334661388266</v>
+        <v>0.0002596846014838838</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000208839970601516</v>
+        <v>0.0002061099953819619</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000107429165505362</v>
+        <v>0.0001063876761359154</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>8.285780826847026e-05</v>
+        <v>8.041792305365613e-05</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001046886175275829</v>
+        <v>0.0001033714805807382</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>4.67785271441833e-05</v>
+        <v>4.464984714574357e-05</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>3.31474456439819e-05</v>
+        <v>3.167535257312206e-05</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>1.93420259292259e-05</v>
+        <v>1.673217155196812e-05</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>1.047485161457148e-05</v>
+        <v>8.471218275895314e-06</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>8.00607451861847e-06</v>
+        <v>6.431324079191941e-06</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>7.973399862889414e-06</v>
+        <v>6.056728082289676e-06</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>9.787530388970836e-06</v>
+        <v>8.319514619744514e-06</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>1.226437031696115e-05</v>
+        <v>1.163446890828851e-05</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>1.18010731055158e-05</v>
+        <v>9.936092082728173e-06</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>2.429095518721118e-05</v>
+        <v>2.106977842606406e-05</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>3.776838693230734e-05</v>
+        <v>3.345352647244547e-05</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>8.736256442895958e-05</v>
+        <v>8.655077763521526e-05</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0002206204971084181</v>
+        <v>0.000219302605026696</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0002168975716254476</v>
+        <v>0.0002141259418461816</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0001150471285970805</v>
+        <v>0.0001143492368693934</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>6.070392009340221e-05</v>
+        <v>5.857186612014935e-05</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>3.044246202040002e-05</v>
+        <v>2.913393397164285e-05</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>3.089315196062536e-05</v>
+        <v>2.93971118448293e-05</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>2.112150168130619e-05</v>
+        <v>2.171457955017105e-05</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>1.958859974424398e-05</v>
+        <v>1.502873513112587e-05</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>1.176223434019855e-05</v>
+        <v>1.154104161796102e-05</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>1.414036052736459e-05</v>
+        <v>1.368439292361037e-05</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>2.993888849326328e-05</v>
+        <v>2.944027342936233e-05</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>1.978141145283046e-05</v>
+        <v>1.94418573453193e-05</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>8.832126464197146e-06</v>
+        <v>8.097450554180033e-06</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>7.87150746123891e-06</v>
+        <v>6.900471275750128e-06</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>6.969989980627107e-06</v>
+        <v>6.479458053534468e-06</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>8.410789460317129e-06</v>
+        <v>7.689090309293017e-06</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>1.539625386965283e-05</v>
+        <v>1.510287776366255e-05</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>3.468751169969507e-05</v>
+        <v>3.419852280863213e-05</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>3.892433565717728e-05</v>
+        <v>3.838074406907661e-05</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>4.515654036377705e-05</v>
+        <v>4.515142789182096e-05</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>4.613550175998543e-05</v>
+        <v>4.594010190988023e-05</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>4.059350282841054e-05</v>
+        <v>4.004502236593565e-05</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>3.600735137954428e-05</v>
+        <v>3.543628544952773e-05</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>2.701307353251667e-05</v>
+        <v>2.715740831910027e-05</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>2.482072490896525e-05</v>
+        <v>2.459077937479785e-05</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>2.307289168380658e-05</v>
+        <v>2.332897270826979e-05</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>2.298248653895006e-05</v>
+        <v>2.261273108649797e-05</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>2.239925244815592e-05</v>
+        <v>2.147949730191415e-05</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>2.225826938835388e-05</v>
+        <v>2.142153447823287e-05</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>2.555726293715753e-05</v>
+        <v>2.518662095022756e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>3.385963210632061e-05</v>
+        <v>3.33842406372566e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>5.392494241300035e-05</v>
+        <v>5.394113334155892e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>8.044072860927111e-05</v>
+        <v>8.085970297345341e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0001057205785059107</v>
+        <v>0.000106158494015475</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>0.000139002712250468</v>
+        <v>0.0001393596596192897</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0001720031157827338</v>
+        <v>0.0001727981450493088</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0001850084885370552</v>
+        <v>0.0001853225458391815</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0002291943377369718</v>
+        <v>0.000229417096015963</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0002781270595439885</v>
+        <v>0.0002796011006270538</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>0.000280762699080156</v>
+        <v>0.0002816322752205448</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0003123508724212577</v>
+        <v>0.0003158424873646215</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0003181268922352474</v>
+        <v>0.0003189186507801289</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0003154201167022576</v>
+        <v>0.0003175758098890442</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>0.000309248816848882</v>
+        <v>0.0003106764624930535</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0003084582223312895</v>
+        <v>0.000309015628707652</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0002923358630470026</v>
+        <v>0.0002952472453667808</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>0.000284964377516892</v>
+        <v>0.00028605340342456</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0002325476530841168</v>
+        <v>0.0002345286810191584</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0002149085776989099</v>
+        <v>0.0002149783069389894</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0001801042816300441</v>
+        <v>0.000180691938618938</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0001386910129540498</v>
+        <v>0.0001395499711495522</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0001263946301407081</v>
+        <v>0.0001270324807689686</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0001085535662948193</v>
+        <v>0.0001087977017747529</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0001029718285279801</v>
+        <v>0.0001034232606747657</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0001034666292664176</v>
+        <v>0.0001037282219698881</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0001023706019020866</v>
+        <v>0.0001027031354964104</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>9.862344959870077e-05</v>
+        <v>9.884163683048057e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>9.934612125632924e-05</v>
+        <v>9.948181193805926e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0001003645653973494</v>
+        <v>0.0001004376882876302</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0001110769823301194</v>
+        <v>0.0001115134782058171</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0001211325467997498</v>
+        <v>0.000121144511766477</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0001269545726223693</v>
+        <v>0.0001268840471768257</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0001281893718634142</v>
+        <v>0.000128240012360798</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0001246978767069973</v>
+        <v>0.0001250890824434015</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>0.000117992972633872</v>
+        <v>0.0001179120626772403</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0001012399141855323</v>
+        <v>0.0001017646650351059</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>6.299401605801551e-05</v>
+        <v>6.339289155940255e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>5.28405614693898e-05</v>
+        <v>5.33957001788968e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>4.258613949718349e-05</v>
+        <v>4.28071169158157e-05</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>3.271012147108496e-05</v>
+        <v>3.289830729009035e-05</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>3.071840772858994e-05</v>
+        <v>3.076595145812926e-05</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>3.007016445205234e-05</v>
+        <v>3.008027082865009e-05</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>3.070461760070168e-05</v>
+        <v>3.05259085601068e-05</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>2.912906178263675e-05</v>
+        <v>2.893440294436887e-05</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>2.90711778564292e-05</v>
+        <v>2.909218154678377e-05</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>2.92874658291028e-05</v>
+        <v>2.907566332335109e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>2.891683365855911e-05</v>
+        <v>2.895658315840542e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>2.829637370484311e-05</v>
+        <v>2.855622918841882e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>2.75276043935613e-05</v>
+        <v>2.740455537383387e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>2.712631875523277e-05</v>
+        <v>2.707779606847011e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>2.541752837321997e-05</v>
+        <v>2.528474233570726e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>2.556769680055536e-05</v>
+        <v>2.534533259013292e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>2.601432776195802e-05</v>
+        <v>2.598061998611905e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>2.566405112590384e-05</v>
+        <v>2.528449655674374e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>2.255843193873134e-05</v>
+        <v>2.236048979324325e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>1.978826405444806e-05</v>
+        <v>1.987392826884528e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>1.85761019879702e-05</v>
+        <v>1.857712981842537e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>1.802538730348801e-05</v>
+        <v>1.826765004165537e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>2.247391393570691e-05</v>
+        <v>2.239208337166809e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>3.834955982948889e-05</v>
+        <v>3.817425938661802e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>4.623421380654851e-05</v>
+        <v>4.627482829075547e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>4.920636910727829e-05</v>
+        <v>4.907353074564978e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>4.985617897446055e-05</v>
+        <v>4.979118896899442e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>5.119284368037343e-05</v>
+        <v>5.114764569042806e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>5.13478548365322e-05</v>
+        <v>5.153979479905525e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>4.918084757272557e-05</v>
+        <v>4.945495031327349e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>4.53485322502443e-05</v>
+        <v>4.564428106664389e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>2.829451792899247e-05</v>
+        <v>2.834828626050579e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>1.823023348026528e-05</v>
+        <v>1.838366285715129e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>1.654551981636018e-05</v>
+        <v>1.65539669846383e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>1.850775336654914e-05</v>
+        <v>1.865922421163375e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>2.591024899177078e-05</v>
+        <v>2.591586147177354e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>2.867413578712334e-05</v>
+        <v>2.861181359983162e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>4.286162437029398e-05</v>
+        <v>4.26489636404125e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>5.650254422230909e-05</v>
+        <v>5.743216774509307e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>5.898135888204229e-05</v>
+        <v>5.906841700055912e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>5.620199853370128e-05</v>
+        <v>5.626999011673279e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>5.011511946287543e-05</v>
+        <v>5.005574223305329e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>4.443875285240149e-05</v>
+        <v>4.4260003778339e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>3.774117984056297e-05</v>
+        <v>3.828903183224972e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>3.486526084384503e-05</v>
+        <v>3.457121787299412e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>3.472815243662314e-05</v>
+        <v>3.404361064787173e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>3.328885030690304e-05</v>
+        <v>3.06053447769355e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>3.31624471403156e-05</v>
+        <v>3.294790762098416e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>3.198119092117967e-05</v>
+        <v>3.208106421695914e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>3.514370456921267e-05</v>
+        <v>3.388084994837559e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>4.031465548985769e-05</v>
+        <v>3.992024251437343e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>4.52487315108198e-05</v>
+        <v>4.504162379749482e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>5.098868785281226e-05</v>
+        <v>5.076939381453591e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>5.863902572536814e-05</v>
+        <v>5.850897671603507e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>6.450298591283892e-05</v>
+        <v>6.461259934815682e-05</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>6.294091996409052e-05</v>
+        <v>6.277038257056282e-05</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>5.678091428753896e-05</v>
+        <v>5.696082389356338e-05</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>5.582162020761244e-05</v>
+        <v>5.605542961181101e-05</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>4.956722956577929e-05</v>
+        <v>4.991058514651673e-05</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>4.752044621909365e-05</v>
+        <v>4.764479420590646e-05</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>4.63638025642707e-05</v>
+        <v>4.654824587585191e-05</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>5.846632043900527e-05</v>
+        <v>5.878491413355905e-05</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>5.133002926170668e-05</v>
+        <v>5.144946052542171e-05</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>5.399105560063171e-05</v>
+        <v>5.427837577028103e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>4.909930055350195e-05</v>
+        <v>4.93027945458449e-05</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>4.606632217984219e-05</v>
+        <v>4.626828314500345e-05</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>4.380957495903312e-05</v>
+        <v>4.384229299210148e-05</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>4.059121240912226e-05</v>
+        <v>4.087682532780025e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>3.7965333016812e-05</v>
+        <v>3.813643580519152e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>3.877449400196427e-05</v>
+        <v>3.901852687986443e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>2.012191411951918e-05</v>
+        <v>2.023690889950542e-05</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>8.347972518047198e-06</v>
+        <v>8.596044329658053e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>5.044328668803247e-06</v>
+        <v>5.153448980780224e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>7.264603068577189e-06</v>
+        <v>7.389042267586081e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>4.526433215771749e-06</v>
+        <v>4.671620924615769e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>3.629554443980352e-06</v>
+        <v>3.770024907552523e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>3.055719368926569e-06</v>
+        <v>3.163485124768434e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>3.088421097222066e-06</v>
+        <v>2.826809954104632e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>4.535282667345602e-06</v>
+        <v>4.570522488388396e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>8.321484569526422e-06</v>
+        <v>8.266414573894386e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>9.248069762583241e-06</v>
+        <v>9.339699623669724e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>8.012795122169605e-06</v>
+        <v>8.146351499189985e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>7.129182721827943e-06</v>
+        <v>7.274112790413404e-06</v>
       </c>
     </row>
   </sheetData>
